--- a/examples/Книга5.xlsx
+++ b/examples/Книга5.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n.kotovych\Desktop\МТБ структура\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KEP\prctise_pret\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B67618E-E4D0-48AA-B2D3-D4DCAA77172D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="6360"/>
+    <workbookView xWindow="1320" yWindow="-16310" windowWidth="29020" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -19,8 +20,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="pain001 Приклад (декілька платежів)" type="4" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="pain001 Приклад (декілька платежів)" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\n.kotovych\Desktop\МТБ структура\pain001 Приклад (декілька платежів).xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
@@ -314,7 +315,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -808,226 +809,226 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблиця1" displayName="Таблиця1" ref="A1:BU3" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:BU3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблиця1" displayName="Таблиця1" ref="A1:BU3" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:BU3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="73">
-    <tableColumn id="1" uniqueName="ns1:CreDtTm" name="ns1:CreDtTm">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:CreDtTm" name="ns1:CreDtTm">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:GrpHdr/ns1:CreDtTm" xmlDataType="date"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:NbOfTxs" name="ns1:NbOfTxs">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ns1:NbOfTxs" name="ns1:NbOfTxs">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:GrpHdr/ns1:NbOfTxs" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:CtrlSum" name="ns1:CtrlSum">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="ns1:CtrlSum" name="ns1:CtrlSum">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:GrpHdr/ns1:CtrlSum" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="ns1:Nm" name="ns1:Nm">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="ns1:Nm" name="ns1:Nm">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:GrpHdr/ns1:InitgPty/ns1:Nm" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="ns1:Id" name="ns1:Id">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="ns1:Id" name="ns1:Id">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:GrpHdr/ns1:InitgPty/ns1:Id/ns1:OrgId/ns1:Othr/ns1:Id" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Prtry" name="ns1:Prtry">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ns1:Prtry" name="ns1:Prtry">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:GrpHdr/ns1:InitgPty/ns1:Id/ns1:OrgId/ns1:Othr/ns1:SchmeNm/ns1:Prtry" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:PmtInfId" name="ns1:PmtInfId">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ns1:PmtInfId" name="ns1:PmtInfId">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:PmtInfId" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:NbOfTxs" name="ns1:NbOfTxs2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="ns1:NbOfTxs" name="ns1:NbOfTxs2">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:NbOfTxs" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:PmtMtd" name="ns1:PmtMtd">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ns1:PmtMtd" name="ns1:PmtMtd">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:PmtMtd" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Nm" name="ns1:Nm3">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="ns1:Nm" name="ns1:Nm3">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:Dbtr/ns1:Nm" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="ns1:Id" name="ns1:Id4">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="ns1:Id" name="ns1:Id4">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:Dbtr/ns1:Id/ns1:PrvtId/ns1:Othr/ns1:Id" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="12" uniqueName="ns1:Prtry" name="ns1:Prtry5">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="ns1:Prtry" name="ns1:Prtry5">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:Dbtr/ns1:Id/ns1:PrvtId/ns1:Othr/ns1:SchmeNm/ns1:Prtry" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="13" uniqueName="ns1:Prtry" name="ns1:Prtry6">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="ns1:Prtry" name="ns1:Prtry6">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:DbtrAgt/ns1:FinInstnId/ns1:ClrSysMmbId/ns1:ClrSysId/ns1:Prtry" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="14" uniqueName="ns1:MmbId" name="ns1:MmbId">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" uniqueName="ns1:MmbId" name="ns1:MmbId">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:DbtrAgt/ns1:FinInstnId/ns1:ClrSysMmbId/ns1:MmbId" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="15" uniqueName="ns1:Dt" name="ns1:Dt">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" uniqueName="ns1:Dt" name="ns1:Dt">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:ReqdExctnDt/ns1:Dt" xmlDataType="date"/>
     </tableColumn>
-    <tableColumn id="16" uniqueName="ns1:IBAN" name="ns1:IBAN">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" uniqueName="ns1:IBAN" name="ns1:IBAN">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:DbtrAcct/ns1:Id/ns1:IBAN" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="17" uniqueName="ns1:EndToEndId" name="ns1:EndToEndId">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" uniqueName="ns1:EndToEndId" name="ns1:EndToEndId">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:PmtId/ns1:EndToEndId" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:InstdAmt" name="ns1:InstdAmt">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="ns1:InstdAmt" name="ns1:InstdAmt">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:Amt/ns1:InstdAmt" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="19" uniqueName="Ccy" name="Ccy">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" uniqueName="Ccy" name="Ccy">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:Amt/ns1:InstdAmt/@Ccy" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="20" uniqueName="ns1:Nm" name="ns1:Nm7">
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" uniqueName="ns1:Nm" name="ns1:Nm7">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:UltmtDbtr/ns1:Nm" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="21" uniqueName="ns1:StrtNm" name="ns1:StrtNm">
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" uniqueName="ns1:StrtNm" name="ns1:StrtNm">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:UltmtDbtr/ns1:PstlAdr/ns1:StrtNm" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="22" uniqueName="ns1:BldgNb" name="ns1:BldgNb">
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" uniqueName="ns1:BldgNb" name="ns1:BldgNb">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:UltmtDbtr/ns1:PstlAdr/ns1:BldgNb" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="23" uniqueName="ns1:Room" name="ns1:Room">
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" uniqueName="ns1:Room" name="ns1:Room">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:UltmtDbtr/ns1:PstlAdr/ns1:Room" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="24" uniqueName="ns1:PstCd" name="ns1:PstCd">
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" uniqueName="ns1:PstCd" name="ns1:PstCd">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:UltmtDbtr/ns1:PstlAdr/ns1:PstCd" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="25" uniqueName="ns1:TwnNm" name="ns1:TwnNm">
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" uniqueName="ns1:TwnNm" name="ns1:TwnNm">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:UltmtDbtr/ns1:PstlAdr/ns1:TwnNm" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="26" uniqueName="ns1:DstrctNm" name="ns1:DstrctNm">
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" uniqueName="ns1:DstrctNm" name="ns1:DstrctNm">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:UltmtDbtr/ns1:PstlAdr/ns1:DstrctNm" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="27" uniqueName="ns1:CtrySubDvsn" name="ns1:CtrySubDvsn">
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" uniqueName="ns1:CtrySubDvsn" name="ns1:CtrySubDvsn">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:UltmtDbtr/ns1:PstlAdr/ns1:CtrySubDvsn" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="28" uniqueName="ns1:Ctry" name="ns1:Ctry">
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" uniqueName="ns1:Ctry" name="ns1:Ctry">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:UltmtDbtr/ns1:PstlAdr/ns1:Ctry" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="29" uniqueName="ns1:BirthDt" name="ns1:BirthDt">
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" uniqueName="ns1:BirthDt" name="ns1:BirthDt">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:UltmtDbtr/ns1:Id/ns1:PrvtId/ns1:DtAndPlcOfBirth/ns1:BirthDt" xmlDataType="date"/>
     </tableColumn>
-    <tableColumn id="30" uniqueName="ns1:CityOfBirth" name="ns1:CityOfBirth">
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" uniqueName="ns1:CityOfBirth" name="ns1:CityOfBirth">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:UltmtDbtr/ns1:Id/ns1:PrvtId/ns1:DtAndPlcOfBirth/ns1:CityOfBirth" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="31" uniqueName="ns1:CtryOfBirth" name="ns1:CtryOfBirth">
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" uniqueName="ns1:CtryOfBirth" name="ns1:CtryOfBirth">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:UltmtDbtr/ns1:Id/ns1:PrvtId/ns1:DtAndPlcOfBirth/ns1:CtryOfBirth" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="32" uniqueName="ns1:Id" name="ns1:Id8">
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" uniqueName="ns1:Id" name="ns1:Id8">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:UltmtDbtr/ns1:Id/ns1:PrvtId/ns1:Othr/ns1:Id" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="33" uniqueName="ns1:Prtry" name="ns1:Prtry9">
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" uniqueName="ns1:Prtry" name="ns1:Prtry9">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:UltmtDbtr/ns1:Id/ns1:PrvtId/ns1:Othr/ns1:SchmeNm/ns1:Prtry" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="34" uniqueName="ns1:Id" name="ns1:Id10">
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" uniqueName="ns1:Id" name="ns1:Id10">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:UltmtDbtr/ns1:Id/ns1:OrgId/ns1:Othr/ns1:Id" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="35" uniqueName="ns1:Prtry" name="ns1:Prtry11">
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" uniqueName="ns1:Prtry" name="ns1:Prtry11">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:UltmtDbtr/ns1:Id/ns1:OrgId/ns1:Othr/ns1:SchmeNm/ns1:Prtry" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="36" uniqueName="ns1:CtryOfRes" name="ns1:CtryOfRes">
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" uniqueName="ns1:CtryOfRes" name="ns1:CtryOfRes">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:UltmtDbtr/ns1:CtryOfRes" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="37" uniqueName="ns1:Nm" name="ns1:Nm12">
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" uniqueName="ns1:Nm" name="ns1:Nm12">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:Cdtr/ns1:Nm" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="38" uniqueName="ns1:StrtNm" name="ns1:StrtNm13">
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" uniqueName="ns1:StrtNm" name="ns1:StrtNm13">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:Cdtr/ns1:PstlAdr/ns1:StrtNm" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="39" uniqueName="ns1:BldgNb" name="ns1:BldgNb14">
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" uniqueName="ns1:BldgNb" name="ns1:BldgNb14">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:Cdtr/ns1:PstlAdr/ns1:BldgNb" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="40" uniqueName="ns1:Room" name="ns1:Room15">
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" uniqueName="ns1:Room" name="ns1:Room15">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:Cdtr/ns1:PstlAdr/ns1:Room" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="41" uniqueName="ns1:PstCd" name="ns1:PstCd16">
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" uniqueName="ns1:PstCd" name="ns1:PstCd16">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:Cdtr/ns1:PstlAdr/ns1:PstCd" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="42" uniqueName="ns1:TwnNm" name="ns1:TwnNm17">
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" uniqueName="ns1:TwnNm" name="ns1:TwnNm17">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:Cdtr/ns1:PstlAdr/ns1:TwnNm" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="43" uniqueName="ns1:DstrctNm" name="ns1:DstrctNm18">
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" uniqueName="ns1:DstrctNm" name="ns1:DstrctNm18">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:Cdtr/ns1:PstlAdr/ns1:DstrctNm" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="44" uniqueName="ns1:CtrySubDvsn" name="ns1:CtrySubDvsn19">
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" uniqueName="ns1:CtrySubDvsn" name="ns1:CtrySubDvsn19">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:Cdtr/ns1:PstlAdr/ns1:CtrySubDvsn" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="45" uniqueName="ns1:Ctry" name="ns1:Ctry20">
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" uniqueName="ns1:Ctry" name="ns1:Ctry20">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:Cdtr/ns1:PstlAdr/ns1:Ctry" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="46" uniqueName="ns1:BirthDt" name="ns1:BirthDt21">
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" uniqueName="ns1:BirthDt" name="ns1:BirthDt21">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:Cdtr/ns1:Id/ns1:PrvtId/ns1:DtAndPlcOfBirth/ns1:BirthDt" xmlDataType="date"/>
     </tableColumn>
-    <tableColumn id="47" uniqueName="ns1:CityOfBirth" name="ns1:CityOfBirth22">
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" uniqueName="ns1:CityOfBirth" name="ns1:CityOfBirth22">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:Cdtr/ns1:Id/ns1:PrvtId/ns1:DtAndPlcOfBirth/ns1:CityOfBirth" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="48" uniqueName="ns1:CtryOfBirth" name="ns1:CtryOfBirth23">
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" uniqueName="ns1:CtryOfBirth" name="ns1:CtryOfBirth23">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:Cdtr/ns1:Id/ns1:PrvtId/ns1:DtAndPlcOfBirth/ns1:CtryOfBirth" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="49" uniqueName="ns1:Id" name="ns1:Id24">
+    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" uniqueName="ns1:Id" name="ns1:Id24">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:Cdtr/ns1:Id/ns1:PrvtId/ns1:Othr/ns1:Id" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="50" uniqueName="ns1:Prtry" name="ns1:Prtry25">
+    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" uniqueName="ns1:Prtry" name="ns1:Prtry25">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:Cdtr/ns1:Id/ns1:PrvtId/ns1:Othr/ns1:SchmeNm/ns1:Prtry" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="51" uniqueName="ns1:Id" name="ns1:Id26">
+    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0000-000033000000}" uniqueName="ns1:Id" name="ns1:Id26">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:Cdtr/ns1:Id/ns1:OrgId/ns1:Othr/ns1:Id" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="52" uniqueName="ns1:Prtry" name="ns1:Prtry27">
+    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0000-000034000000}" uniqueName="ns1:Prtry" name="ns1:Prtry27">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:Cdtr/ns1:Id/ns1:OrgId/ns1:Othr/ns1:SchmeNm/ns1:Prtry" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="53" uniqueName="ns1:CtryOfRes" name="ns1:CtryOfRes28">
+    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" uniqueName="ns1:CtryOfRes" name="ns1:CtryOfRes28">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:Cdtr/ns1:CtryOfRes" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="54" uniqueName="ns1:IBAN" name="ns1:IBAN29">
+    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" uniqueName="ns1:IBAN" name="ns1:IBAN29">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:CdtrAcct/ns1:Id/ns1:IBAN" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="55" uniqueName="ns1:Nm" name="ns1:Nm30">
+    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0000-000037000000}" uniqueName="ns1:Nm" name="ns1:Nm30">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:UltmtCdtr/ns1:Nm" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="56" uniqueName="ns1:StrtNm" name="ns1:StrtNm31">
+    <tableColumn id="56" xr3:uid="{00000000-0010-0000-0000-000038000000}" uniqueName="ns1:StrtNm" name="ns1:StrtNm31">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:UltmtCdtr/ns1:PstlAdr/ns1:StrtNm" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="57" uniqueName="ns1:BldgNb" name="ns1:BldgNb32">
+    <tableColumn id="57" xr3:uid="{00000000-0010-0000-0000-000039000000}" uniqueName="ns1:BldgNb" name="ns1:BldgNb32">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:UltmtCdtr/ns1:PstlAdr/ns1:BldgNb" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="58" uniqueName="ns1:Room" name="ns1:Room33">
+    <tableColumn id="58" xr3:uid="{00000000-0010-0000-0000-00003A000000}" uniqueName="ns1:Room" name="ns1:Room33">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:UltmtCdtr/ns1:PstlAdr/ns1:Room" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="59" uniqueName="ns1:PstCd" name="ns1:PstCd34">
+    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0000-00003B000000}" uniqueName="ns1:PstCd" name="ns1:PstCd34">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:UltmtCdtr/ns1:PstlAdr/ns1:PstCd" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="60" uniqueName="ns1:TwnNm" name="ns1:TwnNm35">
+    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0000-00003C000000}" uniqueName="ns1:TwnNm" name="ns1:TwnNm35">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:UltmtCdtr/ns1:PstlAdr/ns1:TwnNm" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="61" uniqueName="ns1:DstrctNm" name="ns1:DstrctNm36">
+    <tableColumn id="61" xr3:uid="{00000000-0010-0000-0000-00003D000000}" uniqueName="ns1:DstrctNm" name="ns1:DstrctNm36">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:UltmtCdtr/ns1:PstlAdr/ns1:DstrctNm" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="62" uniqueName="ns1:CtrySubDvsn" name="ns1:CtrySubDvsn37">
+    <tableColumn id="62" xr3:uid="{00000000-0010-0000-0000-00003E000000}" uniqueName="ns1:CtrySubDvsn" name="ns1:CtrySubDvsn37">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:UltmtCdtr/ns1:PstlAdr/ns1:CtrySubDvsn" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="63" uniqueName="ns1:Ctry" name="ns1:Ctry38">
+    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0000-00003F000000}" uniqueName="ns1:Ctry" name="ns1:Ctry38">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:UltmtCdtr/ns1:PstlAdr/ns1:Ctry" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="64" uniqueName="ns1:Id" name="ns1:Id39">
+    <tableColumn id="64" xr3:uid="{00000000-0010-0000-0000-000040000000}" uniqueName="ns1:Id" name="ns1:Id39">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:UltmtCdtr/ns1:Id/ns1:OrgId/ns1:Othr/ns1:Id" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="65" uniqueName="ns1:Prtry" name="ns1:Prtry40">
+    <tableColumn id="65" xr3:uid="{00000000-0010-0000-0000-000041000000}" uniqueName="ns1:Prtry" name="ns1:Prtry40">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:UltmtCdtr/ns1:Id/ns1:OrgId/ns1:Othr/ns1:SchmeNm/ns1:Prtry" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="66" uniqueName="ns1:CtryOfRes" name="ns1:CtryOfRes41">
+    <tableColumn id="66" xr3:uid="{00000000-0010-0000-0000-000042000000}" uniqueName="ns1:CtryOfRes" name="ns1:CtryOfRes41">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:UltmtCdtr/ns1:CtryOfRes" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="67" uniqueName="ns1:Tp" name="ns1:Tp">
+    <tableColumn id="67" xr3:uid="{00000000-0010-0000-0000-000043000000}" uniqueName="ns1:Tp" name="ns1:Tp">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:RmtInf/ns1:Strd/ns1:TaxRmt/ns1:Rcrd/ns1:Tp" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="68" uniqueName="ns1:Ctgy" name="ns1:Ctgy">
+    <tableColumn id="68" xr3:uid="{00000000-0010-0000-0000-000044000000}" uniqueName="ns1:Ctgy" name="ns1:Ctgy">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:RmtInf/ns1:Strd/ns1:TaxRmt/ns1:Rcrd/ns1:Ctgy" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="69" uniqueName="ns1:CtgyDtls" name="ns1:CtgyDtls">
+    <tableColumn id="69" xr3:uid="{00000000-0010-0000-0000-000045000000}" uniqueName="ns1:CtgyDtls" name="ns1:CtgyDtls">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:RmtInf/ns1:Strd/ns1:TaxRmt/ns1:Rcrd/ns1:CtgyDtls" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="70" uniqueName="ns1:CertId" name="ns1:CertId">
+    <tableColumn id="70" xr3:uid="{00000000-0010-0000-0000-000046000000}" uniqueName="ns1:CertId" name="ns1:CertId">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:RmtInf/ns1:Strd/ns1:TaxRmt/ns1:Rcrd/ns1:CertId" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="71" uniqueName="ns1:TtlAmt" name="ns1:TtlAmt">
+    <tableColumn id="71" xr3:uid="{00000000-0010-0000-0000-000047000000}" uniqueName="ns1:TtlAmt" name="ns1:TtlAmt">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:RmtInf/ns1:Strd/ns1:TaxRmt/ns1:Rcrd/ns1:TaxAmt/ns1:TtlAmt" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="72" uniqueName="Ccy" name="Ccy42">
+    <tableColumn id="72" xr3:uid="{00000000-0010-0000-0000-000048000000}" uniqueName="Ccy" name="Ccy42">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:RmtInf/ns1:Strd/ns1:TaxRmt/ns1:Rcrd/ns1:TaxAmt/ns1:TtlAmt/@Ccy" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="73" uniqueName="ns1:AddtlInf" name="ns1:AddtlInf">
+    <tableColumn id="73" xr3:uid="{00000000-0010-0000-0000-000049000000}" uniqueName="ns1:AddtlInf" name="ns1:AddtlInf">
       <xmlColumnPr mapId="1" xpath="/ns1:Document/ns1:CstmrCdtTrfInitn/ns1:PmtInf/ns1:CdtTrfTxInf/ns1:RmtInf/ns1:Strd/ns1:TaxRmt/ns1:Rcrd/ns1:AddtlInf" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -1297,90 +1298,90 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BU3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BJ1" workbookViewId="0">
       <selection activeCell="BQ14" sqref="BQ14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="32.5703125" customWidth="1"/>
-    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="32.54296875" customWidth="1"/>
+    <col min="22" max="22" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.7109375" customWidth="1"/>
-    <col min="26" max="26" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.7265625" customWidth="1"/>
+    <col min="26" max="26" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="17" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="11" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="35.7265625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.453125" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="14" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="19" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="31.26953125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="15.453125" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="14" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="49.7109375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="39.7265625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="49.7265625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="31.26953125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="30.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1601,7 +1602,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45342</v>
       </c>
@@ -1749,7 +1750,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45342</v>
       </c>
